--- a/ptt_ennusteet_KT_uusi_sarja_id.xlsx
+++ b/ptt_ennusteet_KT_uusi_sarja_id.xlsx
@@ -265,7 +265,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ptt_ennusteet_KT_uusi_sarja_id.xlsx
+++ b/ptt_ennusteet_KT_uusi_sarja_id.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">muunnos</t>
   </si>
   <si>
-    <t xml:space="preserve">data('StatFin/kan/ntp/statfin_ntp_pxt_132h.px', tidy_time=TRUE)|&gt;filter(Taloustoimi=='B1GMH Bruttokansantuote markkinahintaan')|&gt;filter(Tiedot=='Kausitasoitettu ja työpäiväkorjattu sarja, viitevuosi 2015, miljoonaa euroa')</t>
+    <t xml:space="preserve">bkt_ennuste</t>
   </si>
   <si>
     <t xml:space="preserve">BKT</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">vuosimuutos</t>
   </si>
   <si>
-    <t xml:space="preserve">data('StatFin/kan/ntp/statfin_ntp_pxt_132h.px', tidy_time=TRUE)|&gt;filter(Taloustoimi=='P3KS14_S15 Yksityiset kulutusmenot, menona')|&gt;filter(Tiedot=='Kausitasoitettu ja työpäiväkorjattu sarja, viitevuosi 2015, miljoonaa euroa')</t>
+    <t xml:space="preserve">yksityinen_kulutus_ennuste</t>
   </si>
   <si>
     <t xml:space="preserve">Yksityinen kulutus</t>
@@ -265,7 +265,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ptt_ennusteet_KT_uusi_sarja_id.xlsx
+++ b/ptt_ennusteet_KT_uusi_sarja_id.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="17" documentId="11_802A27FF968DB8981C352C314F5CA412AAB29CB3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8A352F-FA07-477F-8CB3-783EB5A5AAFE}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="840" windowWidth="13956" windowHeight="10284" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="564" yWindow="0" windowWidth="22572" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -148,92 +148,92 @@
       <sheetData sheetId="1">
         <row r="3">
           <cell r="D3">
-            <v>2013</v>
+            <v>2014</v>
           </cell>
           <cell r="E3">
-            <v>2014</v>
+            <v>2015</v>
           </cell>
           <cell r="F3">
-            <v>2015</v>
+            <v>2016</v>
           </cell>
           <cell r="G3">
-            <v>2016</v>
+            <v>2017</v>
           </cell>
           <cell r="H3">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="I3">
-            <v>2018</v>
+            <v>2019</v>
           </cell>
           <cell r="J3">
-            <v>2019</v>
+            <v>2020</v>
           </cell>
           <cell r="K3">
-            <v>2020</v>
+            <v>2021</v>
           </cell>
           <cell r="L3">
-            <v>2021</v>
+            <v>2022</v>
           </cell>
           <cell r="M3">
-            <v>2022</v>
+            <v>2023</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>-9.0216171283924451E-3</v>
+            <v>-3.6490815688207112E-3</v>
           </cell>
           <cell r="E5">
-            <v>-3.6490815688207112E-3</v>
+            <v>5.4365921176549037E-3</v>
           </cell>
           <cell r="F5">
-            <v>5.4365921176549037E-3</v>
+            <v>2.8114577666343399E-2</v>
           </cell>
           <cell r="G5">
-            <v>2.8114577666343399E-2</v>
+            <v>3.1924096296841675E-2</v>
           </cell>
           <cell r="H5">
-            <v>3.1924096296841675E-2</v>
+            <v>1.1419475087619091E-2</v>
           </cell>
           <cell r="I5">
-            <v>1.1419475087619091E-2</v>
+            <v>1.2207541430252933E-2</v>
           </cell>
           <cell r="J5">
-            <v>1.3433145084138953E-2</v>
+            <v>-2.2996916322584049E-2</v>
           </cell>
           <cell r="K5">
-            <v>-2.8702680598936769E-2</v>
+            <v>3.2993633980634485E-2</v>
           </cell>
           <cell r="L5">
-            <v>3.6859526440811446E-2</v>
+            <v>3.678111498754582E-2</v>
           </cell>
           <cell r="M5">
-            <v>3.9834034336467594E-2</v>
+            <v>3.946295964431748E-2</v>
           </cell>
         </row>
         <row r="10">
           <cell r="D10">
-            <v>-5.2194187104238621E-3</v>
+            <v>6.0635653409091272E-3</v>
           </cell>
           <cell r="E10">
-            <v>6.0635653409091272E-3</v>
+            <v>1.606911218375795E-2</v>
           </cell>
           <cell r="F10">
-            <v>1.606911218375795E-2</v>
+            <v>2.4291322170499452E-2</v>
           </cell>
           <cell r="G10">
-            <v>2.4291322170499452E-2</v>
+            <v>7.5631035856911222E-3</v>
           </cell>
           <cell r="H10">
-            <v>7.5631035856911222E-3</v>
+            <v>1.712487272054064E-2</v>
           </cell>
           <cell r="I10">
-            <v>1.712487272054064E-2</v>
+            <v>7.3220372637918807E-3</v>
           </cell>
           <cell r="J10">
-            <v>6.5526028394611302E-3</v>
+            <v>-4.0951762995573016E-2</v>
           </cell>
           <cell r="K10">
-            <v>-4.6868321551865821E-2</v>
+            <v>3.1849752070362447E-2</v>
           </cell>
           <cell r="L10">
             <v>3.5000000000000003E-2</v>
@@ -245,7 +245,6 @@
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -554,14 +553,14 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,46 +572,46 @@
       </c>
       <c r="D1">
         <f>'[1]Huoltotase, iterointi'!D3</f>
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E1">
         <f>'[1]Huoltotase, iterointi'!E3</f>
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F1">
         <f>'[1]Huoltotase, iterointi'!F3</f>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G1">
         <f>'[1]Huoltotase, iterointi'!G3</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H1">
         <f>'[1]Huoltotase, iterointi'!H3</f>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I1">
         <f>'[1]Huoltotase, iterointi'!I3</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="J1">
         <f>'[1]Huoltotase, iterointi'!J3</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K1">
         <f>'[1]Huoltotase, iterointi'!K3</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L1">
         <f>'[1]Huoltotase, iterointi'!L3</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M1">
         <f>'[1]Huoltotase, iterointi'!M3</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -624,46 +623,46 @@
       </c>
       <c r="D2">
         <f>100* '[1]Huoltotase, iterointi'!D5</f>
-        <v>-0.90216171283924451</v>
+        <v>-0.36490815688207112</v>
       </c>
       <c r="E2">
         <f>100* '[1]Huoltotase, iterointi'!E5</f>
-        <v>-0.36490815688207112</v>
+        <v>0.54365921176549037</v>
       </c>
       <c r="F2">
         <f>100* '[1]Huoltotase, iterointi'!F5</f>
-        <v>0.54365921176549037</v>
+        <v>2.8114577666343399</v>
       </c>
       <c r="G2">
         <f>100* '[1]Huoltotase, iterointi'!G5</f>
-        <v>2.8114577666343399</v>
+        <v>3.1924096296841675</v>
       </c>
       <c r="H2">
         <f>100* '[1]Huoltotase, iterointi'!H5</f>
-        <v>3.1924096296841675</v>
+        <v>1.1419475087619091</v>
       </c>
       <c r="I2">
         <f>100* '[1]Huoltotase, iterointi'!I5</f>
-        <v>1.1419475087619091</v>
+        <v>1.2207541430252933</v>
       </c>
       <c r="J2">
         <f>100* '[1]Huoltotase, iterointi'!J5</f>
-        <v>1.3433145084138953</v>
+        <v>-2.2996916322584049</v>
       </c>
       <c r="K2">
         <f>100* '[1]Huoltotase, iterointi'!K5</f>
-        <v>-2.8702680598936769</v>
+        <v>3.2993633980634485</v>
       </c>
       <c r="L2">
         <f>100* '[1]Huoltotase, iterointi'!L5</f>
-        <v>3.6859526440811448</v>
+        <v>3.678111498754582</v>
       </c>
       <c r="M2">
         <f>100* '[1]Huoltotase, iterointi'!M5</f>
-        <v>3.9834034336467594</v>
+        <v>3.9462959644317479</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -675,35 +674,35 @@
       </c>
       <c r="D3">
         <f>100* '[1]Huoltotase, iterointi'!D10</f>
-        <v>-0.52194187104238621</v>
+        <v>0.60635653409091272</v>
       </c>
       <c r="E3">
         <f>100* '[1]Huoltotase, iterointi'!E10</f>
-        <v>0.60635653409091272</v>
+        <v>1.606911218375795</v>
       </c>
       <c r="F3">
         <f>100* '[1]Huoltotase, iterointi'!F10</f>
-        <v>1.606911218375795</v>
+        <v>2.4291322170499452</v>
       </c>
       <c r="G3">
         <f>100* '[1]Huoltotase, iterointi'!G10</f>
-        <v>2.4291322170499452</v>
+        <v>0.75631035856911222</v>
       </c>
       <c r="H3">
         <f>100* '[1]Huoltotase, iterointi'!H10</f>
-        <v>0.75631035856911222</v>
+        <v>1.712487272054064</v>
       </c>
       <c r="I3">
         <f>100* '[1]Huoltotase, iterointi'!I10</f>
-        <v>1.712487272054064</v>
+        <v>0.73220372637918807</v>
       </c>
       <c r="J3">
         <f>100* '[1]Huoltotase, iterointi'!J10</f>
-        <v>0.65526028394611302</v>
+        <v>-4.095176299557302</v>
       </c>
       <c r="K3">
         <f>100* '[1]Huoltotase, iterointi'!K10</f>
-        <v>-4.6868321551865826</v>
+        <v>3.1849752070362447</v>
       </c>
       <c r="L3">
         <f>100* '[1]Huoltotase, iterointi'!L10</f>
@@ -714,7 +713,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -728,7 +727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -742,7 +741,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
